--- a/biology/Médecine/Vaidya/Vaidya.xlsx
+++ b/biology/Médecine/Vaidya/Vaidya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vaidya est un médecin pratiquant l'Ayurveda, une médecine traditionnelle originaire de l’Inde et également pratiquée dans d'autres parties du monde.
 Le vaidya ne traite pas le patient uniquement sur le plan physique mais étudie toujours l'ensemble de la personnalité et de la situation d'une personne, ce qui inclut des facteurs aussi divers que la profession, la vie de famille, les influences saisonnières et les habitudes quotidiennes. Au cours de sa formation, il aura étudié les aspects physiques, mentaux et émotionnels de la guérison et ce qui relie l'individu au cosmos.
